--- a/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_3_fts_result_202202.xlsx
+++ b/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_3_fts_result_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -195,19 +195,19 @@
     <t>d_GenerateID</t>
   </si>
   <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456 upper case only with dashes)</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123456 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{7}$')</t>
-  </si>
-  <si>
-    <t>Must be entered as 123-1234567 only with number and dashes)</t>
-  </si>
-  <si>
-    <t>Doit être entré au format 123-1234567 uniquement avec desnombre et tirets</t>
+    <t>Enter unique ID from the diagnostic test (must be entered as 123-1234-567 upper case only with dashes)</t>
+  </si>
+  <si>
+    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-1234-567 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{4}-[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>The format must be 123-1234-567</t>
+  </si>
+  <si>
+    <t>Le format doit être 123-1234-567</t>
   </si>
   <si>
     <t>${d_IDType} = "Generation automatique"</t>
@@ -4423,12 +4423,12 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5280,7 +5280,7 @@
   <sheetPr/>
   <dimension ref="A1:G1716"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1647" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:G1716"/>
@@ -34333,7 +34333,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_3_fts_result_202202.xlsx
+++ b/LF/TAS/Senegal/TAS1/Fev 2022/sn_lf_tas1_3_fts_result_202202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
     <t>Ligne témoin discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d’absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
@@ -488,7 +488,7 @@
     <t>Difficulté d’absorption d’échantillon</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
@@ -4423,12 +4423,12 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5280,10 +5280,10 @@
   <sheetPr/>
   <dimension ref="A1:G1716"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1647" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G1716"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
